--- a/migration/questions.xlsx
+++ b/migration/questions.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuanYangAng\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4178" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="28800" windowHeight="17540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnaire" sheetId="1" r:id="rId1"/>
@@ -17,10 +12,13 @@
     <sheet name="CAS" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Questionnaire!$C$1:$C$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Questionnaire!$A$1:$E$168</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="226">
   <si>
     <t>Index</t>
   </si>
@@ -692,13 +690,28 @@
   </si>
   <si>
     <t>Consistency of Interests</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Increment</t>
+  </si>
+  <si>
+    <t>Entrepreneurial Profile</t>
+  </si>
+  <si>
+    <t>Band</t>
+  </si>
+  <si>
+    <t>Order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,6 +731,30 @@
       <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -766,19 +803,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -869,7 +920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -921,7 +972,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1115,7 +1166,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1126,17 +1177,17 @@
   <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.59765625" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1170,7 +1221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1187,7 +1238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1204,7 +1255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1221,7 +1272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1238,7 +1289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1255,7 +1306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1272,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1289,7 +1340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1306,7 +1357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1323,7 +1374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1340,7 +1391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1357,7 +1408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1374,7 +1425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1391,7 +1442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1408,7 +1459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1425,7 +1476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1442,7 +1493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1459,7 +1510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1476,7 +1527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1493,7 +1544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1510,7 +1561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1527,7 +1578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1544,7 +1595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1561,7 +1612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1578,7 +1629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1595,7 +1646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1612,7 +1663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1629,7 +1680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1646,7 +1697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1663,7 +1714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1680,7 +1731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1697,7 +1748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1714,7 +1765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1731,7 +1782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1748,7 +1799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1765,7 +1816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1782,7 +1833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1799,7 +1850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1816,7 +1867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1833,7 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1850,7 +1901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1867,7 +1918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1884,7 +1935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1901,7 +1952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1918,7 +1969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1935,7 +1986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1952,7 +2003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1969,7 +2020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1986,7 +2037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2003,7 +2054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2020,7 +2071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2037,7 +2088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2054,7 +2105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2071,7 +2122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2088,7 +2139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2105,7 +2156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2122,7 +2173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2139,7 +2190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2156,7 +2207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2173,7 +2224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2190,7 +2241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2207,7 +2258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2224,7 +2275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2241,7 +2292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2258,7 +2309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2275,7 +2326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2292,7 +2343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2309,7 +2360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2326,7 +2377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2343,7 +2394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2360,7 +2411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2377,7 +2428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2394,7 +2445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2411,7 +2462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2428,7 +2479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2445,7 +2496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2462,7 +2513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2479,7 +2530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2496,7 +2547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2513,7 +2564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2530,7 +2581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2547,7 +2598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2564,7 +2615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2581,7 +2632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2598,7 +2649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2615,7 +2666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2632,7 +2683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2649,7 +2700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2666,7 +2717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2683,7 +2734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2700,7 +2751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2717,7 +2768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2734,7 +2785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2751,7 +2802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2768,7 +2819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2785,7 +2836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2802,7 +2853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2819,7 +2870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2836,7 +2887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2853,7 +2904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2870,7 +2921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2887,7 +2938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2904,7 +2955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2921,7 +2972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2938,7 +2989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2955,7 +3006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2972,7 +3023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2989,7 +3040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3006,7 +3057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3023,7 +3074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3040,7 +3091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3057,7 +3108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3074,7 +3125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3091,7 +3142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3108,7 +3159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3125,7 +3176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3142,7 +3193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3159,7 +3210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3176,7 +3227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3193,7 +3244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3210,7 +3261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3227,7 +3278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3244,7 +3295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3261,7 +3312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3278,7 +3329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3295,7 +3346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3312,7 +3363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3329,7 +3380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3346,7 +3397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3363,7 +3414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3380,7 +3431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3397,7 +3448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3414,7 +3465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3431,7 +3482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3448,7 +3499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3465,7 +3516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3482,7 +3533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3499,7 +3550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3516,7 +3567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3533,7 +3584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3550,7 +3601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3567,7 +3618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3584,7 +3635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3601,7 +3652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3618,7 +3669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3635,7 +3686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3652,7 +3703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3669,7 +3720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3686,7 +3737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3703,7 +3754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3720,7 +3771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3737,7 +3788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3754,7 +3805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3771,7 +3822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3788,7 +3839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3805,7 +3856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3822,7 +3873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3839,7 +3890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:5">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3856,7 +3907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:5">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3873,7 +3924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3890,7 +3941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -3907,7 +3958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -3924,7 +3975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -3941,7 +3992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:5">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -3958,7 +4009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -3975,7 +4026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -3993,7 +4044,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C168"/>
+  <autoFilter ref="A1:E168"/>
   <conditionalFormatting sqref="D1:D157 D160:D1048576">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",D1)))</formula>
@@ -4010,18 +4061,23 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
@@ -4029,7 +4085,7 @@
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>205</v>
       </c>
@@ -4042,13 +4098,19 @@
       <c r="D1" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -4056,13 +4118,19 @@
       <c r="D2" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -4070,13 +4138,19 @@
       <c r="D3" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -4084,13 +4158,19 @@
       <c r="D4" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -4098,8 +4178,14 @@
       <c r="D5" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -4112,8 +4198,14 @@
       <c r="D6" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -4126,8 +4218,14 @@
       <c r="D7" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4140,8 +4238,14 @@
       <c r="D8" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -4154,8 +4258,14 @@
       <c r="D9" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -4168,8 +4278,14 @@
       <c r="D10" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -4182,8 +4298,14 @@
       <c r="D11" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -4196,8 +4318,14 @@
       <c r="D12" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -4210,8 +4338,14 @@
       <c r="D13" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -4224,8 +4358,14 @@
       <c r="D14" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -4238,8 +4378,14 @@
       <c r="D15" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
@@ -4252,61 +4398,80 @@
       <c r="D16" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" style="1" customWidth="1"/>
-    <col min="2" max="10" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="10" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4332,200 +4497,227 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
       <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8</v>
       </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
         <v>19</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>25</v>
       </c>
-      <c r="J3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="K3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>13</v>
       </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
       <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>23</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>29</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>22</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>15</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
       </c>
       <c r="G5">
         <v>11</v>
       </c>
       <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
         <v>27</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>31</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>22</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>17</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
       </c>
       <c r="G6">
         <v>12</v>
       </c>
       <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
         <v>29</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>33</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>28</v>
       </c>
-      <c r="D7">
-        <v>26</v>
-      </c>
       <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
         <v>18</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>13</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>14</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>33</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>36</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>24</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>32</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>30</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>20</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>15</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>17</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>38</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>40</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/migration/questions.xlsx
+++ b/migration/questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="28800" windowHeight="17540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnaire" sheetId="1" r:id="rId1"/>
@@ -449,9 +449,6 @@
     <t>I treat mistakes as learning opportunities rather than failure.</t>
   </si>
   <si>
-    <t>I pick on the vibrations of people around me.</t>
-  </si>
-  <si>
     <t>I am the kind of person who constantly has ideas about making money.</t>
   </si>
   <si>
@@ -705,6 +702,9 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>I pick on the vibes of people around me.</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1166,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3147,7 +3147,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
@@ -3164,7 +3164,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
@@ -3181,7 +3181,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
@@ -3198,7 +3198,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
@@ -3215,7 +3215,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C120" t="s">
         <v>4</v>
@@ -3232,7 +3232,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C121" t="s">
         <v>4</v>
@@ -3249,7 +3249,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C122" t="s">
         <v>4</v>
@@ -3266,7 +3266,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
         <v>4</v>
@@ -3283,7 +3283,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C124" t="s">
         <v>4</v>
@@ -3300,7 +3300,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -3317,7 +3317,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C126" t="s">
         <v>4</v>
@@ -3334,7 +3334,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
@@ -3351,7 +3351,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
@@ -3368,7 +3368,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C129" t="s">
         <v>4</v>
@@ -3385,7 +3385,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C130" t="s">
         <v>10</v>
@@ -3402,7 +3402,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C131" t="s">
         <v>10</v>
@@ -3419,7 +3419,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C132" t="s">
         <v>10</v>
@@ -3436,7 +3436,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C133" t="s">
         <v>10</v>
@@ -3453,7 +3453,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s">
         <v>10</v>
@@ -3470,7 +3470,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
@@ -3487,7 +3487,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C136" t="s">
         <v>4</v>
@@ -3504,7 +3504,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C137" t="s">
         <v>4</v>
@@ -3521,7 +3521,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C138" t="s">
         <v>4</v>
@@ -3538,7 +3538,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C139" t="s">
         <v>4</v>
@@ -3555,7 +3555,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
@@ -3572,7 +3572,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
@@ -3589,7 +3589,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C142" t="s">
         <v>4</v>
@@ -3606,7 +3606,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C143" t="s">
         <v>4</v>
@@ -3623,7 +3623,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
@@ -3640,7 +3640,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C145" t="s">
         <v>10</v>
@@ -3657,7 +3657,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C146" t="s">
         <v>10</v>
@@ -3674,7 +3674,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C147" t="s">
         <v>10</v>
@@ -3691,7 +3691,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C148" t="s">
         <v>10</v>
@@ -3708,7 +3708,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C149" t="s">
         <v>10</v>
@@ -3725,7 +3725,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C150" t="s">
         <v>22</v>
@@ -3742,7 +3742,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C151" t="s">
         <v>22</v>
@@ -3759,7 +3759,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C152" t="s">
         <v>22</v>
@@ -3776,7 +3776,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C153" t="s">
         <v>22</v>
@@ -3793,7 +3793,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C154" t="s">
         <v>22</v>
@@ -3810,7 +3810,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C155" t="s">
         <v>22</v>
@@ -3827,7 +3827,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C156" t="s">
         <v>22</v>
@@ -3844,7 +3844,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C157" t="s">
         <v>22</v>
@@ -3861,7 +3861,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C158" t="s">
         <v>22</v>
@@ -3878,7 +3878,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C159" t="s">
         <v>22</v>
@@ -3895,7 +3895,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C160" t="s">
         <v>10</v>
@@ -3912,7 +3912,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C161" t="s">
         <v>10</v>
@@ -3929,7 +3929,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C162" t="s">
         <v>10</v>
@@ -3946,7 +3946,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C163" t="s">
         <v>10</v>
@@ -3963,7 +3963,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C164" t="s">
         <v>10</v>
@@ -3980,7 +3980,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C165" t="s">
         <v>10</v>
@@ -3997,7 +3997,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C166" t="s">
         <v>10</v>
@@ -4014,7 +4014,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C167" t="s">
         <v>10</v>
@@ -4031,7 +4031,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C168" t="s">
         <v>10</v>
@@ -4087,22 +4087,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="E1" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4110,13 +4110,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4130,13 +4130,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4150,13 +4150,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4170,13 +4170,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4190,13 +4190,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4210,13 +4210,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4230,13 +4230,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4250,13 +4250,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4270,13 +4270,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4290,13 +4290,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4310,13 +4310,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4330,13 +4330,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4350,13 +4350,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4370,13 +4370,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -4390,13 +4390,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -4420,7 +4420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4433,10 +4433,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -4471,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4506,7 +4506,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -4541,7 +4541,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -4576,7 +4576,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -4611,7 +4611,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -4646,7 +4646,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -4681,7 +4681,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8">
         <v>24</v>

--- a/migration/questions.xlsx
+++ b/migration/questions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21080"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnaire" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="227">
   <si>
     <t>Index</t>
   </si>
@@ -705,6 +705,9 @@
   </si>
   <si>
     <t>I pick on the vibes of people around me.</t>
+  </si>
+  <si>
+    <t>Percentile</t>
   </si>
 </sst>
 </file>
@@ -1176,14 +1179,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="78.5" customWidth="1"/>
     <col min="3" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3870,7 +3873,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3887,7 +3890,7 @@
         <v>23</v>
       </c>
       <c r="E159" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4044,7 +4047,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E168"/>
   <conditionalFormatting sqref="D1:D157 D160:D1048576">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",D1)))</formula>
@@ -4074,7 +4076,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4418,20 +4420,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="10" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>224</v>
       </c>
@@ -4439,42 +4442,45 @@
         <v>223</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" s="1">
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4500,214 +4506,235 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C3">
-        <v>10</v>
+      <c r="C3" s="1">
+        <v>20</v>
       </c>
       <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>9</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>8</v>
       </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
       <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
         <v>19</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>25</v>
       </c>
-      <c r="K3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
+        <v>40</v>
+      </c>
+      <c r="D4">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>13</v>
       </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>23</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>29</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
+        <v>60</v>
+      </c>
+      <c r="D5">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>22</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>19</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>15</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
       </c>
       <c r="H5">
         <v>11</v>
       </c>
       <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5">
         <v>27</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>31</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
+        <v>80</v>
+      </c>
+      <c r="D6">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>22</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>17</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
       </c>
       <c r="H6">
         <v>12</v>
       </c>
       <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
         <v>29</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>33</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
+        <v>95</v>
+      </c>
+      <c r="D7">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>28</v>
       </c>
-      <c r="E7">
-        <v>26</v>
-      </c>
       <c r="F7">
+        <v>26</v>
+      </c>
+      <c r="G7">
         <v>18</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>13</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>14</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>33</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>36</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8">
         <v>24</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>32</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>30</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>15</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>17</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>38</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>40</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>41</v>
       </c>
     </row>

--- a/migration/questions.xlsx
+++ b/migration/questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="228">
   <si>
     <t>Index</t>
   </si>
@@ -708,6 +708,9 @@
   </si>
   <si>
     <t>Percentile</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1183,7 @@
   <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2445,7 +2448,7 @@
         <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4423,7 +4426,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
